--- a/biology/Botanique/Brunnera_macrophylla/Brunnera_macrophylla.xlsx
+++ b/biology/Botanique/Brunnera_macrophylla/Brunnera_macrophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brunnère à grandes feuilles ou Myosotis du Caucase - Brunnera macrophylla - est une plante de la famille des Boraginacées. Elle est originaire du Caucase.
 Nom russe : Бруннера крупнолистная
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante herbacée vivace et rhizomateuse. Elle est un peu rameuse et peut atteindre 30 centimètres de haut. Les feuilles, ovales-lancéolées, à la base de la plante, sont alternes, portées par un long pétiole et de plus grande taille que les feuilles au sommet des tiges.
 Les inflorescences sont sans bractée. La corolle de la fleur - bleue, mais quelques variétés horticoles sont blanches - est courte, très semblable à celles des espèces du genre Myosotis. Elle est pentalobée, avec cinq ovaires.
 Le tube est court, de longueur comparable à celle du calice. Les anthères sont à l'intérieur du tube sur un court filament. Les grains de pollen, petits, portent une bande équatoriale épineuse.
 Les stigmates se terminent par des papilles irrégulières et acérées.
-Le nombre de chromosomes est ordinairement de 2 n = 12[1].
-Cependant, N. S. Probatova, E. S. Rudyka et S. A. Shatalova trouvent un exemplaire à 48 chromosomes[2].
+Le nombre de chromosomes est ordinairement de 2 n = 12.
+Cependant, N. S. Probatova, E. S. Rudyka et S. A. Shatalova trouvent un exemplaire à 48 chromosomes.
 </t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du Caucase.
 </t>
@@ -579,7 +595,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante de sous-bois ou de lisière forestière.
 </t>
@@ -610,12 +628,14 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce est publiée une première fois en 1806 par Johannes Michael Friedrich Adams à partir d'un exemplaire collecté dans le Caucase (probablement en Géorgie - Iberie -) et décrit par Apollos Apollossowitsch Mussin-Puschkin : il la place dans le genre Myosotis et son épithète spécifique fait référence à sa principale particularité dans ce genre : la grande taille des feuilles basales[3].
-En 1818, Johann Georg Christian Lehmann la déplace dans le genre Anchusa et le renomme  Anchusa myosotidiflora : il ne pouvait conserver l'épithète spécifique macrophylla, le nom Anchusa macrophylla ayant déjà été attribué à une espèce marocaine par René Louiche Desfontaines en 1798[4].
-En 1851 par Christian von Steven la transfère dans le genre Brunnera sans toutefois revenir à l'épithète donné par Apollos Apollossowitsch Mussin-Puschkin : Brunnera myosotidiflora (Lehm.) Steven[5].
-En 1924, Ivan Muray Johnston revient, conformément aux règles d'antériorité, à l'épithète défini par Apollos Apollossowitsch Mussin-Puschkin[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette espèce est publiée une première fois en 1806 par Johannes Michael Friedrich Adams à partir d'un exemplaire collecté dans le Caucase (probablement en Géorgie - Iberie -) et décrit par Apollos Apollossowitsch Mussin-Puschkin : il la place dans le genre Myosotis et son épithète spécifique fait référence à sa principale particularité dans ce genre : la grande taille des feuilles basales.
+En 1818, Johann Georg Christian Lehmann la déplace dans le genre Anchusa et le renomme  Anchusa myosotidiflora : il ne pouvait conserver l'épithète spécifique macrophylla, le nom Anchusa macrophylla ayant déjà été attribué à une espèce marocaine par René Louiche Desfontaines en 1798.
+En 1851 par Christian von Steven la transfère dans le genre Brunnera sans toutefois revenir à l'épithète donné par Apollos Apollossowitsch Mussin-Puschkin : Brunnera myosotidiflora (Lehm.) Steven.
+En 1924, Ivan Muray Johnston revient, conformément aux règles d'antériorité, à l'épithète défini par Apollos Apollossowitsch Mussin-Puschkin.
 Avec le caractère monophylétique du genre, le classement de Brunnera macrophylla est confirmé par les études phylogénétiques de Hartmut H. Hilger, Federico Selvi, Alessio Papini et Massimo Bigazzi (document en référence).
 Elle compte donc trois synonymes :
 Anchusa myosotidiflora Lehm.
@@ -650,7 +670,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale utilisation de la brunnère à grandes feuilles est ornementale.
 De nombreuses variétés horticoles ont été créées dont les principales sont :
